--- a/data/excel_files_raw/test_excel_3_raw.xlsx
+++ b/data/excel_files_raw/test_excel_3_raw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrislittle/GitHub/speedsheet/excel-2-python/data/excel_files_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E0F510-84FE-444D-85D9-6D42C920BB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE44D1D-0C7F-6241-AAE9-B559DD840965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="19680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="19680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="toyota_21_analysis" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="97">
   <si>
     <t>Created Month</t>
   </si>
@@ -85,12 +85,6 @@
     <t>Bookings CDW Paid</t>
   </si>
   <si>
-    <t xml:space="preserve">Hiyacar Net </t>
-  </si>
-  <si>
-    <t>New MRG</t>
-  </si>
-  <si>
     <t>WV69OLN</t>
   </si>
   <si>
@@ -316,12 +310,6 @@
     <t>Yaris Hybrid</t>
   </si>
   <si>
-    <t>Col1</t>
-  </si>
-  <si>
-    <t>Col2</t>
-  </si>
-  <si>
     <t>Col3</t>
   </si>
   <si>
@@ -335,6 +323,9 @@
   </si>
   <si>
     <t>net per car</t>
+  </si>
+  <si>
+    <t>Hiyacar Net Before</t>
   </si>
 </sst>
 </file>
@@ -486,7 +477,23 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -759,7 +766,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1173,10 +1180,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W53"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView topLeftCell="A1048530" workbookViewId="0">
-      <selection activeCell="A1048576" sqref="A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1187,12 +1194,10 @@
     <col min="6" max="6" width="14.33203125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
@@ -1215,41 +1220,29 @@
         <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>96</v>
-      </c>
+      <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
-      <c r="Q1" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" s="9">
         <v>3544.51</v>
@@ -1258,7 +1251,7 @@
         <v>211.2</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="9">
         <v>5812.91</v>
@@ -1270,39 +1263,23 @@
         <v>235</v>
       </c>
       <c r="H2" s="7">
-        <f t="shared" ref="H2:H33" si="0">IF((B2*$Q$2)&gt;(C2*6),(B2-(B2*$Q$2)),(B2-(C2*6)))</f>
+        <f>IF((B2*$M$2)&gt;(C2*6),(B2-(B2*$M$2)),(B2-(C2*6)))</f>
         <v>1772.2550000000001</v>
       </c>
       <c r="I2" s="7">
-        <f>(VLOOKUP(D2,updated_mrgs!B:G,3,FALSE))</f>
-        <v>476.75</v>
+        <v>0</v>
       </c>
       <c r="J2" s="7">
-        <f t="shared" ref="J2:J22" si="1">IF((B2*$Q$2)&gt;(I2*6),(B2-(B2*$Q$2)),(B2-(I2*6)))</f>
-        <v>684.01000000000022</v>
-      </c>
-      <c r="K2" s="7">
-        <f>VLOOKUP(D2,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>397.29166666666669</v>
-      </c>
-      <c r="L2" s="7">
-        <f t="shared" ref="L2:L33" si="2">IF((B2*$Q$2)&gt;(K2*6),(B2-(B2*$Q$2)),(B2-(K2*6)))</f>
-        <v>1160.7600000000002</v>
-      </c>
-      <c r="M2" s="7">
-        <v>0</v>
-      </c>
-      <c r="N2" s="7">
-        <f t="shared" ref="N2:N33" si="3">B2-(M2*6)</f>
+        <f>B2-(I2*6)</f>
         <v>3544.51</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="M2" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="9">
         <v>3489.6</v>
@@ -1311,7 +1288,7 @@
         <v>211.2</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="9">
         <v>5655.61</v>
@@ -1323,36 +1300,20 @@
         <v>166</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" si="0"/>
+        <f>IF((B3*$M$2)&gt;(C3*6),(B3-(B3*$M$2)),(B3-(C3*6)))</f>
         <v>1744.8</v>
       </c>
       <c r="I3" s="7">
-        <f>(VLOOKUP(D3,updated_mrgs!B:G,3,FALSE))</f>
-        <v>428.75</v>
+        <v>0</v>
       </c>
       <c r="J3" s="7">
-        <f t="shared" si="1"/>
-        <v>917.09999999999991</v>
-      </c>
-      <c r="K3" s="7">
-        <f>VLOOKUP(D3,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>357.29166666666669</v>
-      </c>
-      <c r="L3" s="7">
-        <f t="shared" si="2"/>
-        <v>1345.85</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <f t="shared" si="3"/>
+        <f>B3-(I3*6)</f>
         <v>3489.6</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="9">
         <v>2711.71</v>
@@ -1361,7 +1322,7 @@
         <v>310.39999999999998</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" s="9">
         <v>5011.78</v>
@@ -1373,36 +1334,20 @@
         <v>172</v>
       </c>
       <c r="H4" s="7">
-        <f t="shared" si="0"/>
+        <f>IF((B4*$M$2)&gt;(C4*6),(B4-(B4*$M$2)),(B4-(C4*6)))</f>
         <v>849.31000000000017</v>
       </c>
       <c r="I4" s="7">
-        <f>(VLOOKUP(D4,updated_mrgs!B:G,3,FALSE))</f>
-        <v>413.75</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7">
-        <f t="shared" si="1"/>
-        <v>229.21000000000004</v>
-      </c>
-      <c r="K4" s="7">
-        <f>VLOOKUP(D4,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>344.79166666666669</v>
-      </c>
-      <c r="L4" s="7">
-        <f t="shared" si="2"/>
-        <v>642.96</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <f t="shared" si="3"/>
+        <f>B4-(I4*6)</f>
         <v>2711.71</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="9">
         <v>2880.13</v>
@@ -1411,7 +1356,7 @@
         <v>211.2</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="9">
         <v>4709.3900000000003</v>
@@ -1423,36 +1368,20 @@
         <v>359</v>
       </c>
       <c r="H5" s="7">
-        <f t="shared" si="0"/>
+        <f>IF((B5*$M$2)&gt;(C5*6),(B5-(B5*$M$2)),(B5-(C5*6)))</f>
         <v>1440.0650000000001</v>
       </c>
       <c r="I5" s="7">
-        <f>(VLOOKUP(D5,updated_mrgs!B:G,3,FALSE))</f>
-        <v>476.75</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7">
-        <f t="shared" si="1"/>
-        <v>19.630000000000109</v>
-      </c>
-      <c r="K5" s="7">
-        <f>VLOOKUP(D5,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>397.29166666666669</v>
-      </c>
-      <c r="L5" s="7">
-        <f t="shared" si="2"/>
-        <v>496.38000000000011</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <f t="shared" si="3"/>
+        <f>B5-(I5*6)</f>
         <v>2880.13</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" s="9">
         <v>2914.75</v>
@@ -1461,7 +1390,7 @@
         <v>211.2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" s="9">
         <v>4403.5200000000004</v>
@@ -1473,36 +1402,20 @@
         <v>255</v>
       </c>
       <c r="H6" s="7">
-        <f t="shared" si="0"/>
+        <f>IF((B6*$M$2)&gt;(C6*6),(B6-(B6*$M$2)),(B6-(C6*6)))</f>
         <v>1457.375</v>
       </c>
       <c r="I6" s="7">
-        <f>(VLOOKUP(D6,updated_mrgs!B:G,3,FALSE))</f>
-        <v>476.75</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7">
-        <f t="shared" si="1"/>
-        <v>54.25</v>
-      </c>
-      <c r="K6" s="7">
-        <f>VLOOKUP(D6,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>397.29166666666669</v>
-      </c>
-      <c r="L6" s="7">
-        <f t="shared" si="2"/>
-        <v>531</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <f t="shared" si="3"/>
+        <f>B6-(I6*6)</f>
         <v>2914.75</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="9">
         <v>2351.21</v>
@@ -1511,7 +1424,7 @@
         <v>310.39999999999998</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="9">
         <v>4282.5200000000004</v>
@@ -1523,36 +1436,20 @@
         <v>230</v>
       </c>
       <c r="H7" s="7">
-        <f t="shared" si="0"/>
+        <f>IF((B7*$M$2)&gt;(C7*6),(B7-(B7*$M$2)),(B7-(C7*6)))</f>
         <v>488.81000000000017</v>
       </c>
       <c r="I7" s="7">
-        <f>(VLOOKUP(D7,updated_mrgs!B:G,3,FALSE))</f>
-        <v>413.75</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7">
-        <f t="shared" si="1"/>
-        <v>-131.28999999999996</v>
-      </c>
-      <c r="K7" s="7">
-        <f>VLOOKUP(D7,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>344.79166666666669</v>
-      </c>
-      <c r="L7" s="7">
-        <f t="shared" si="2"/>
-        <v>282.46000000000004</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <f t="shared" si="3"/>
+        <f>B7-(I7*6)</f>
         <v>2351.21</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="9">
         <v>2591.7800000000002</v>
@@ -1561,7 +1458,7 @@
         <v>225.6</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" s="9">
         <v>4153.66</v>
@@ -1573,36 +1470,20 @@
         <v>192</v>
       </c>
       <c r="H8" s="7">
-        <f t="shared" si="0"/>
+        <f>IF((B8*$M$2)&gt;(C8*6),(B8-(B8*$M$2)),(B8-(C8*6)))</f>
         <v>1238.1800000000003</v>
       </c>
       <c r="I8" s="7">
-        <f>(VLOOKUP(D8,updated_mrgs!B:G,3,FALSE))</f>
-        <v>363.75</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7">
-        <f t="shared" si="1"/>
-        <v>409.2800000000002</v>
-      </c>
-      <c r="K8" s="7">
-        <f>VLOOKUP(D8,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>303.125</v>
-      </c>
-      <c r="L8" s="7">
-        <f t="shared" si="2"/>
-        <v>773.0300000000002</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <f t="shared" si="3"/>
+        <f>B8-(I8*6)</f>
         <v>2591.7800000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" s="9">
         <v>2656.16</v>
@@ -1611,7 +1492,7 @@
         <v>225.6</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9">
         <v>4141.43</v>
@@ -1623,36 +1504,20 @@
         <v>173</v>
       </c>
       <c r="H9" s="7">
-        <f t="shared" si="0"/>
+        <f>IF((B9*$M$2)&gt;(C9*6),(B9-(B9*$M$2)),(B9-(C9*6)))</f>
         <v>1302.56</v>
       </c>
       <c r="I9" s="7">
-        <f>(VLOOKUP(D9,updated_mrgs!B:G,3,FALSE))</f>
-        <v>363.75</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7">
-        <f t="shared" si="1"/>
-        <v>473.65999999999985</v>
-      </c>
-      <c r="K9" s="7">
-        <f>VLOOKUP(D9,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>303.125</v>
-      </c>
-      <c r="L9" s="7">
-        <f t="shared" si="2"/>
-        <v>837.40999999999985</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <f t="shared" si="3"/>
+        <f>B9-(I9*6)</f>
         <v>2656.16</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="9">
         <v>2556.33</v>
@@ -1661,7 +1526,7 @@
         <v>211.2</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" s="9">
         <v>3973.38</v>
@@ -1673,36 +1538,20 @@
         <v>121</v>
       </c>
       <c r="H10" s="7">
-        <f t="shared" si="0"/>
+        <f>IF((B10*$M$2)&gt;(C10*6),(B10-(B10*$M$2)),(B10-(C10*6)))</f>
         <v>1278.165</v>
       </c>
       <c r="I10" s="7">
-        <f>(VLOOKUP(D10,updated_mrgs!B:G,3,FALSE))</f>
-        <v>476.75</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7">
-        <f t="shared" si="1"/>
-        <v>-304.17000000000007</v>
-      </c>
-      <c r="K10" s="7">
-        <f>VLOOKUP(D10,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>397.29166666666669</v>
-      </c>
-      <c r="L10" s="7">
-        <f t="shared" si="2"/>
-        <v>172.57999999999993</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <f t="shared" si="3"/>
+        <f>B10-(I10*6)</f>
         <v>2556.33</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="9">
         <v>2382.5700000000002</v>
@@ -1711,7 +1560,7 @@
         <v>225.6</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11" s="9">
         <v>3923.28</v>
@@ -1723,36 +1572,20 @@
         <v>134</v>
       </c>
       <c r="H11" s="7">
-        <f t="shared" si="0"/>
+        <f>IF((B11*$M$2)&gt;(C11*6),(B11-(B11*$M$2)),(B11-(C11*6)))</f>
         <v>1028.9700000000003</v>
       </c>
       <c r="I11" s="7">
-        <f>(VLOOKUP(D11,updated_mrgs!B:G,3,FALSE))</f>
-        <v>393.75</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7">
-        <f t="shared" si="1"/>
-        <v>20.070000000000164</v>
-      </c>
-      <c r="K11" s="7">
-        <f>VLOOKUP(D11,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>328.125</v>
-      </c>
-      <c r="L11" s="7">
-        <f t="shared" si="2"/>
-        <v>413.82000000000016</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <f t="shared" si="3"/>
+        <f>B11-(I11*6)</f>
         <v>2382.5700000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" s="9">
         <v>2349.54</v>
@@ -1761,7 +1594,7 @@
         <v>225.6</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" s="9">
         <v>3848.45</v>
@@ -1773,36 +1606,20 @@
         <v>209</v>
       </c>
       <c r="H12" s="7">
-        <f t="shared" si="0"/>
+        <f>IF((B12*$M$2)&gt;(C12*6),(B12-(B12*$M$2)),(B12-(C12*6)))</f>
         <v>995.94</v>
       </c>
       <c r="I12" s="7">
-        <f>(VLOOKUP(D12,updated_mrgs!B:G,3,FALSE))</f>
-        <v>363.75</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7">
-        <f t="shared" si="1"/>
-        <v>167.03999999999996</v>
-      </c>
-      <c r="K12" s="7">
-        <f>VLOOKUP(D12,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>303.125</v>
-      </c>
-      <c r="L12" s="7">
-        <f t="shared" si="2"/>
-        <v>530.79</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <f t="shared" si="3"/>
+        <f>B12-(I12*6)</f>
         <v>2349.54</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" s="9">
         <v>2323.56</v>
@@ -1811,7 +1628,7 @@
         <v>225.6</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13" s="9">
         <v>3790.69</v>
@@ -1823,36 +1640,20 @@
         <v>44</v>
       </c>
       <c r="H13" s="7">
-        <f t="shared" si="0"/>
+        <f>IF((B13*$M$2)&gt;(C13*6),(B13-(B13*$M$2)),(B13-(C13*6)))</f>
         <v>969.96</v>
       </c>
       <c r="I13" s="7">
-        <f>(VLOOKUP(D13,updated_mrgs!B:G,3,FALSE))</f>
-        <v>363.75</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7">
-        <f t="shared" si="1"/>
-        <v>141.05999999999995</v>
-      </c>
-      <c r="K13" s="7">
-        <f>VLOOKUP(D13,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>303.125</v>
-      </c>
-      <c r="L13" s="7">
-        <f t="shared" si="2"/>
-        <v>504.80999999999995</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <f t="shared" si="3"/>
+        <f>B13-(I13*6)</f>
         <v>2323.56</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" s="9">
         <v>2210.86</v>
@@ -1861,7 +1662,7 @@
         <v>211.2</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E14" s="9">
         <v>3748.83</v>
@@ -1873,36 +1674,20 @@
         <v>164</v>
       </c>
       <c r="H14" s="7">
-        <f t="shared" si="0"/>
+        <f>IF((B14*$M$2)&gt;(C14*6),(B14-(B14*$M$2)),(B14-(C14*6)))</f>
         <v>943.66000000000031</v>
       </c>
       <c r="I14" s="7">
-        <f>(VLOOKUP(D14,updated_mrgs!B:G,3,FALSE))</f>
-        <v>476.75</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7">
-        <f t="shared" si="1"/>
-        <v>-649.63999999999987</v>
-      </c>
-      <c r="K14" s="7">
-        <f>VLOOKUP(D14,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>397.29166666666669</v>
-      </c>
-      <c r="L14" s="7">
-        <f t="shared" si="2"/>
-        <v>-172.88999999999987</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <f t="shared" si="3"/>
+        <f>B14-(I14*6)</f>
         <v>2210.86</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="9">
         <v>2244.62</v>
@@ -1911,7 +1696,7 @@
         <v>192</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E15" s="9">
         <v>3728.98</v>
@@ -1923,36 +1708,20 @@
         <v>204</v>
       </c>
       <c r="H15" s="7">
-        <f t="shared" si="0"/>
+        <f>IF((B15*$M$2)&gt;(C15*6),(B15-(B15*$M$2)),(B15-(C15*6)))</f>
         <v>1092.6199999999999</v>
       </c>
       <c r="I15" s="7">
-        <f>(VLOOKUP(D15,updated_mrgs!B:G,3,FALSE))</f>
-        <v>363.75</v>
+        <v>0</v>
       </c>
       <c r="J15" s="7">
-        <f t="shared" si="1"/>
-        <v>62.119999999999891</v>
-      </c>
-      <c r="K15" s="7">
-        <f>VLOOKUP(D15,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>303.125</v>
-      </c>
-      <c r="L15" s="7">
-        <f t="shared" si="2"/>
-        <v>425.86999999999989</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7">
-        <f t="shared" si="3"/>
+        <f>B15-(I15*6)</f>
         <v>2244.62</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" s="9">
         <v>2329.88</v>
@@ -1961,7 +1730,7 @@
         <v>225.6</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E16" s="9">
         <v>3722.71</v>
@@ -1973,36 +1742,20 @@
         <v>161</v>
       </c>
       <c r="H16" s="7">
-        <f t="shared" si="0"/>
+        <f>IF((B16*$M$2)&gt;(C16*6),(B16-(B16*$M$2)),(B16-(C16*6)))</f>
         <v>976.2800000000002</v>
       </c>
       <c r="I16" s="7">
-        <f>(VLOOKUP(D16,updated_mrgs!B:G,3,FALSE))</f>
-        <v>363.75</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7">
-        <f t="shared" si="1"/>
-        <v>147.38000000000011</v>
-      </c>
-      <c r="K16" s="7">
-        <f>VLOOKUP(D16,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>303.125</v>
-      </c>
-      <c r="L16" s="7">
-        <f t="shared" si="2"/>
-        <v>511.13000000000011</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <f t="shared" si="3"/>
+        <f>B16-(I16*6)</f>
         <v>2329.88</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" s="9">
         <v>2401.0100000000002</v>
@@ -2011,7 +1764,7 @@
         <v>225.6</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E17" s="9">
         <v>3715.02</v>
@@ -2023,36 +1776,20 @@
         <v>152</v>
       </c>
       <c r="H17" s="7">
-        <f t="shared" si="0"/>
+        <f>IF((B17*$M$2)&gt;(C17*6),(B17-(B17*$M$2)),(B17-(C17*6)))</f>
         <v>1047.4100000000003</v>
       </c>
       <c r="I17" s="7">
-        <f>(VLOOKUP(D17,updated_mrgs!B:G,3,FALSE))</f>
-        <v>363.75</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7">
-        <f t="shared" si="1"/>
-        <v>218.51000000000022</v>
-      </c>
-      <c r="K17" s="7">
-        <f>VLOOKUP(D17,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>303.125</v>
-      </c>
-      <c r="L17" s="7">
-        <f t="shared" si="2"/>
-        <v>582.26000000000022</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <f t="shared" si="3"/>
+        <f>B17-(I17*6)</f>
         <v>2401.0100000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" s="9">
         <v>2331.86</v>
@@ -2061,7 +1798,7 @@
         <v>192</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E18" s="9">
         <v>3690.39</v>
@@ -2073,36 +1810,20 @@
         <v>187</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" si="0"/>
+        <f>IF((B18*$M$2)&gt;(C18*6),(B18-(B18*$M$2)),(B18-(C18*6)))</f>
         <v>1165.93</v>
       </c>
       <c r="I18" s="7">
-        <f>(VLOOKUP(D18,updated_mrgs!B:G,3,FALSE))</f>
-        <v>363.75</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7">
-        <f t="shared" si="1"/>
-        <v>149.36000000000013</v>
-      </c>
-      <c r="K18" s="7">
-        <f>VLOOKUP(D18,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>303.125</v>
-      </c>
-      <c r="L18" s="7">
-        <f t="shared" si="2"/>
-        <v>513.11000000000013</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <f t="shared" si="3"/>
+        <f>B18-(I18*6)</f>
         <v>2331.86</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" s="9">
         <v>2036.97</v>
@@ -2111,7 +1832,7 @@
         <v>211.2</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E19" s="9">
         <v>3636.25</v>
@@ -2123,36 +1844,20 @@
         <v>217</v>
       </c>
       <c r="H19" s="7">
-        <f t="shared" si="0"/>
+        <f>IF((B19*$M$2)&gt;(C19*6),(B19-(B19*$M$2)),(B19-(C19*6)))</f>
         <v>769.77000000000021</v>
       </c>
       <c r="I19" s="7">
-        <f>(VLOOKUP(D19,updated_mrgs!B:G,3,FALSE))</f>
-        <v>476.75</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7">
-        <f t="shared" si="1"/>
-        <v>-823.53</v>
-      </c>
-      <c r="K19" s="7">
-        <f>VLOOKUP(D19,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>397.29166666666669</v>
-      </c>
-      <c r="L19" s="7">
-        <f t="shared" si="2"/>
-        <v>-346.78</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <f t="shared" si="3"/>
+        <f>B19-(I19*6)</f>
         <v>2036.97</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B20" s="9">
         <v>2307.9699999999998</v>
@@ -2161,7 +1866,7 @@
         <v>225.6</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E20" s="9">
         <v>3546.71</v>
@@ -2173,36 +1878,20 @@
         <v>127</v>
       </c>
       <c r="H20" s="7">
-        <f t="shared" si="0"/>
+        <f>IF((B20*$M$2)&gt;(C20*6),(B20-(B20*$M$2)),(B20-(C20*6)))</f>
         <v>954.36999999999989</v>
       </c>
       <c r="I20" s="7">
-        <f>(VLOOKUP(D20,updated_mrgs!B:G,3,FALSE))</f>
-        <v>363.75</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7">
-        <f t="shared" si="1"/>
-        <v>125.4699999999998</v>
-      </c>
-      <c r="K20" s="7">
-        <f>VLOOKUP(D20,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>303.125</v>
-      </c>
-      <c r="L20" s="7">
-        <f t="shared" si="2"/>
-        <v>489.2199999999998</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <f t="shared" si="3"/>
+        <f>B20-(I20*6)</f>
         <v>2307.9699999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21" s="9">
         <v>2219.04</v>
@@ -2211,7 +1900,7 @@
         <v>225.6</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E21" s="9">
         <v>3524.39</v>
@@ -2223,36 +1912,20 @@
         <v>243</v>
       </c>
       <c r="H21" s="7">
-        <f t="shared" si="0"/>
+        <f>IF((B21*$M$2)&gt;(C21*6),(B21-(B21*$M$2)),(B21-(C21*6)))</f>
         <v>865.44</v>
       </c>
       <c r="I21" s="7">
-        <f>(VLOOKUP(D21,updated_mrgs!B:G,3,FALSE))</f>
-        <v>363.75</v>
+        <v>0</v>
       </c>
       <c r="J21" s="7">
-        <f t="shared" si="1"/>
-        <v>36.539999999999964</v>
-      </c>
-      <c r="K21" s="7">
-        <f>VLOOKUP(D21,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>303.125</v>
-      </c>
-      <c r="L21" s="7">
-        <f t="shared" si="2"/>
-        <v>400.28999999999996</v>
-      </c>
-      <c r="M21" s="7">
-        <v>0</v>
-      </c>
-      <c r="N21" s="7">
-        <f t="shared" si="3"/>
+        <f>B21-(I21*6)</f>
         <v>2219.04</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B22" s="9">
         <v>2417.5300000000002</v>
@@ -2261,7 +1934,7 @@
         <v>192</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E22" s="9">
         <v>3499.57</v>
@@ -2273,36 +1946,20 @@
         <v>164</v>
       </c>
       <c r="H22" s="7">
-        <f t="shared" si="0"/>
+        <f>IF((B22*$M$2)&gt;(C22*6),(B22-(B22*$M$2)),(B22-(C22*6)))</f>
         <v>1208.7650000000001</v>
       </c>
       <c r="I22" s="7">
-        <f>(VLOOKUP(D22,updated_mrgs!B:G,3,FALSE))</f>
-        <v>363.75</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7">
-        <f t="shared" si="1"/>
-        <v>235.0300000000002</v>
-      </c>
-      <c r="K22" s="7">
-        <f>VLOOKUP(D22,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>303.125</v>
-      </c>
-      <c r="L22" s="7">
-        <f t="shared" si="2"/>
-        <v>598.7800000000002</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <f t="shared" si="3"/>
+        <f>B22-(I22*6)</f>
         <v>2417.5300000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B23" s="9">
         <v>2403.48</v>
@@ -2311,7 +1968,7 @@
         <v>225.6</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E23" s="9">
         <v>3471.02</v>
@@ -2323,36 +1980,20 @@
         <v>95</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" si="0"/>
+        <f>IF((B23*$M$2)&gt;(C23*6),(B23-(B23*$M$2)),(B23-(C23*6)))</f>
         <v>1049.8800000000001</v>
       </c>
       <c r="I23" s="7">
-        <f>(VLOOKUP(D23,updated_mrgs!B:G,3,FALSE))</f>
-        <v>363.75</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" ref="J23:J53" si="4">IF((B23*$Q$2)&gt;(I23*6),(B23-(B23*$Q$2)),(B23-(I23*6)))</f>
-        <v>220.98000000000002</v>
-      </c>
-      <c r="K23" s="7">
-        <f>VLOOKUP(D23,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>303.125</v>
-      </c>
-      <c r="L23" s="7">
-        <f t="shared" si="2"/>
-        <v>584.73</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-      <c r="N23" s="7">
-        <f t="shared" si="3"/>
+        <f>B23-(I23*6)</f>
         <v>2403.48</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B24" s="9">
         <v>2135.7600000000002</v>
@@ -2361,7 +2002,7 @@
         <v>225.6</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E24" s="9">
         <v>3396.37</v>
@@ -2373,36 +2014,20 @@
         <v>156</v>
       </c>
       <c r="H24" s="7">
-        <f t="shared" si="0"/>
+        <f>IF((B24*$M$2)&gt;(C24*6),(B24-(B24*$M$2)),(B24-(C24*6)))</f>
         <v>782.16000000000031</v>
       </c>
       <c r="I24" s="7">
-        <f>(VLOOKUP(D24,updated_mrgs!B:G,3,FALSE))</f>
-        <v>363.75</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7">
-        <f t="shared" si="4"/>
-        <v>-46.739999999999782</v>
-      </c>
-      <c r="K24" s="7">
-        <f>VLOOKUP(D24,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>303.125</v>
-      </c>
-      <c r="L24" s="7">
-        <f t="shared" si="2"/>
-        <v>317.01000000000022</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <f t="shared" si="3"/>
+        <f>B24-(I24*6)</f>
         <v>2135.7600000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" s="9">
         <v>2124.13</v>
@@ -2411,7 +2036,7 @@
         <v>225.6</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E25" s="9">
         <v>3376.2</v>
@@ -2423,36 +2048,20 @@
         <v>176</v>
       </c>
       <c r="H25" s="7">
-        <f t="shared" si="0"/>
+        <f>IF((B25*$M$2)&gt;(C25*6),(B25-(B25*$M$2)),(B25-(C25*6)))</f>
         <v>770.5300000000002</v>
       </c>
       <c r="I25" s="7">
-        <f>(VLOOKUP(D25,updated_mrgs!B:G,3,FALSE))</f>
-        <v>363.75</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7">
-        <f t="shared" si="4"/>
-        <v>-58.369999999999891</v>
-      </c>
-      <c r="K25" s="7">
-        <f>VLOOKUP(D25,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>303.125</v>
-      </c>
-      <c r="L25" s="7">
-        <f t="shared" si="2"/>
-        <v>305.38000000000011</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <f t="shared" si="3"/>
+        <f>B25-(I25*6)</f>
         <v>2124.13</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26" s="9">
         <v>2205.44</v>
@@ -2461,7 +2070,7 @@
         <v>225.6</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E26" s="9">
         <v>3320.54</v>
@@ -2473,36 +2082,20 @@
         <v>248</v>
       </c>
       <c r="H26" s="7">
-        <f t="shared" si="0"/>
+        <f>IF((B26*$M$2)&gt;(C26*6),(B26-(B26*$M$2)),(B26-(C26*6)))</f>
         <v>851.84000000000015</v>
       </c>
       <c r="I26" s="7">
-        <f>(VLOOKUP(D26,updated_mrgs!B:G,3,FALSE))</f>
-        <v>363.75</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7">
-        <f t="shared" si="4"/>
-        <v>22.940000000000055</v>
-      </c>
-      <c r="K26" s="7">
-        <f>VLOOKUP(D26,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>303.125</v>
-      </c>
-      <c r="L26" s="7">
-        <f t="shared" si="2"/>
-        <v>386.69000000000005</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <f t="shared" si="3"/>
+        <f>B26-(I26*6)</f>
         <v>2205.44</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" s="9">
         <v>1955.12</v>
@@ -2511,7 +2104,7 @@
         <v>225.6</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E27" s="9">
         <v>3252.52</v>
@@ -2523,36 +2116,20 @@
         <v>52</v>
       </c>
       <c r="H27" s="7">
-        <f t="shared" si="0"/>
+        <f>IF((B27*$M$2)&gt;(C27*6),(B27-(B27*$M$2)),(B27-(C27*6)))</f>
         <v>601.52</v>
       </c>
       <c r="I27" s="7">
-        <f>(VLOOKUP(D27,updated_mrgs!B:G,3,FALSE))</f>
-        <v>363.75</v>
+        <v>0</v>
       </c>
       <c r="J27" s="7">
-        <f t="shared" si="4"/>
-        <v>-227.38000000000011</v>
-      </c>
-      <c r="K27" s="7">
-        <f>VLOOKUP(D27,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>303.125</v>
-      </c>
-      <c r="L27" s="7">
-        <f t="shared" si="2"/>
-        <v>136.36999999999989</v>
-      </c>
-      <c r="M27" s="7">
-        <v>0</v>
-      </c>
-      <c r="N27" s="7">
-        <f t="shared" si="3"/>
+        <f>B27-(I27*6)</f>
         <v>1955.12</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28" s="9">
         <v>1926.1</v>
@@ -2561,7 +2138,7 @@
         <v>225.6</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E28" s="9">
         <v>3245.04</v>
@@ -2573,36 +2150,20 @@
         <v>153</v>
       </c>
       <c r="H28" s="7">
-        <f t="shared" si="0"/>
+        <f>IF((B28*$M$2)&gt;(C28*6),(B28-(B28*$M$2)),(B28-(C28*6)))</f>
         <v>572.5</v>
       </c>
       <c r="I28" s="7">
-        <f>(VLOOKUP(D28,updated_mrgs!B:G,3,FALSE))</f>
-        <v>363.75</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7">
-        <f t="shared" si="4"/>
-        <v>-256.40000000000009</v>
-      </c>
-      <c r="K28" s="7">
-        <f>VLOOKUP(D28,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>303.125</v>
-      </c>
-      <c r="L28" s="7">
-        <f t="shared" si="2"/>
-        <v>107.34999999999991</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <f t="shared" si="3"/>
+        <f>B28-(I28*6)</f>
         <v>1926.1</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" s="9">
         <v>2030.31</v>
@@ -2611,7 +2172,7 @@
         <v>225.6</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E29" s="9">
         <v>3241.54</v>
@@ -2623,36 +2184,20 @@
         <v>143</v>
       </c>
       <c r="H29" s="7">
-        <f t="shared" si="0"/>
+        <f>IF((B29*$M$2)&gt;(C29*6),(B29-(B29*$M$2)),(B29-(C29*6)))</f>
         <v>676.71</v>
       </c>
       <c r="I29" s="7">
-        <f>(VLOOKUP(D29,updated_mrgs!B:G,3,FALSE))</f>
-        <v>363.75</v>
+        <v>0</v>
       </c>
       <c r="J29" s="7">
-        <f t="shared" si="4"/>
-        <v>-152.19000000000005</v>
-      </c>
-      <c r="K29" s="7">
-        <f>VLOOKUP(D29,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>303.125</v>
-      </c>
-      <c r="L29" s="7">
-        <f t="shared" si="2"/>
-        <v>211.55999999999995</v>
-      </c>
-      <c r="M29" s="7">
-        <v>0</v>
-      </c>
-      <c r="N29" s="7">
-        <f t="shared" si="3"/>
+        <f>B29-(I29*6)</f>
         <v>2030.31</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B30" s="9">
         <v>1935.71</v>
@@ -2661,7 +2206,7 @@
         <v>225.6</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E30" s="9">
         <v>3184.53</v>
@@ -2673,36 +2218,20 @@
         <v>168</v>
       </c>
       <c r="H30" s="7">
-        <f t="shared" si="0"/>
+        <f>IF((B30*$M$2)&gt;(C30*6),(B30-(B30*$M$2)),(B30-(C30*6)))</f>
         <v>582.11000000000013</v>
       </c>
       <c r="I30" s="7">
-        <f>(VLOOKUP(D30,updated_mrgs!B:G,3,FALSE))</f>
-        <v>363.75</v>
+        <v>0</v>
       </c>
       <c r="J30" s="7">
-        <f t="shared" si="4"/>
-        <v>-246.78999999999996</v>
-      </c>
-      <c r="K30" s="7">
-        <f>VLOOKUP(D30,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>303.125</v>
-      </c>
-      <c r="L30" s="7">
-        <f t="shared" si="2"/>
-        <v>116.96000000000004</v>
-      </c>
-      <c r="M30" s="7">
-        <v>0</v>
-      </c>
-      <c r="N30" s="7">
-        <f t="shared" si="3"/>
+        <f>B30-(I30*6)</f>
         <v>1935.71</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B31" s="9">
         <v>1968.9</v>
@@ -2711,7 +2240,7 @@
         <v>192</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E31" s="9">
         <v>3094.53</v>
@@ -2723,36 +2252,20 @@
         <v>95</v>
       </c>
       <c r="H31" s="7">
-        <f t="shared" si="0"/>
+        <f>IF((B31*$M$2)&gt;(C31*6),(B31-(B31*$M$2)),(B31-(C31*6)))</f>
         <v>816.90000000000009</v>
       </c>
       <c r="I31" s="7">
-        <f>(VLOOKUP(D31,updated_mrgs!B:G,3,FALSE))</f>
-        <v>363.75</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7">
-        <f t="shared" si="4"/>
-        <v>-213.59999999999991</v>
-      </c>
-      <c r="K31" s="7">
-        <f>VLOOKUP(D31,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>303.125</v>
-      </c>
-      <c r="L31" s="7">
-        <f t="shared" si="2"/>
-        <v>150.15000000000009</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <f t="shared" si="3"/>
+        <f>B31-(I31*6)</f>
         <v>1968.9</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" s="9">
         <v>2052.87</v>
@@ -2761,7 +2274,7 @@
         <v>211.2</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E32" s="9">
         <v>3023.96</v>
@@ -2773,36 +2286,20 @@
         <v>84</v>
       </c>
       <c r="H32" s="7">
-        <f t="shared" si="0"/>
+        <f>IF((B32*$M$2)&gt;(C32*6),(B32-(B32*$M$2)),(B32-(C32*6)))</f>
         <v>785.67000000000007</v>
       </c>
       <c r="I32" s="7">
-        <f>(VLOOKUP(D32,updated_mrgs!B:G,3,FALSE))</f>
-        <v>476.75</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7">
-        <f t="shared" si="4"/>
-        <v>-807.63000000000011</v>
-      </c>
-      <c r="K32" s="7">
-        <f>VLOOKUP(D32,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>397.29166666666669</v>
-      </c>
-      <c r="L32" s="7">
-        <f t="shared" si="2"/>
-        <v>-330.88000000000011</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <f t="shared" si="3"/>
+        <f>B32-(I32*6)</f>
         <v>2052.87</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B33" s="9">
         <v>1829.48</v>
@@ -2811,7 +2308,7 @@
         <v>225.6</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E33" s="9">
         <v>3013.14</v>
@@ -2823,36 +2320,20 @@
         <v>87</v>
       </c>
       <c r="H33" s="7">
-        <f t="shared" si="0"/>
+        <f>IF((B33*$M$2)&gt;(C33*6),(B33-(B33*$M$2)),(B33-(C33*6)))</f>
         <v>475.88000000000011</v>
       </c>
       <c r="I33" s="7">
-        <f>(VLOOKUP(D33,updated_mrgs!B:G,3,FALSE))</f>
-        <v>363.75</v>
+        <v>0</v>
       </c>
       <c r="J33" s="7">
-        <f t="shared" si="4"/>
-        <v>-353.02</v>
-      </c>
-      <c r="K33" s="7">
-        <f>VLOOKUP(D33,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>303.125</v>
-      </c>
-      <c r="L33" s="7">
-        <f t="shared" si="2"/>
-        <v>10.730000000000018</v>
-      </c>
-      <c r="M33" s="7">
-        <v>0</v>
-      </c>
-      <c r="N33" s="7">
-        <f t="shared" si="3"/>
+        <f>B33-(I33*6)</f>
         <v>1829.48</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B34" s="9">
         <v>1866.84</v>
@@ -2861,7 +2342,7 @@
         <v>225.6</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E34" s="9">
         <v>2996.44</v>
@@ -2873,36 +2354,20 @@
         <v>174</v>
       </c>
       <c r="H34" s="7">
-        <f t="shared" ref="H34:H53" si="5">IF((B34*$Q$2)&gt;(C34*6),(B34-(B34*$Q$2)),(B34-(C34*6)))</f>
+        <f>IF((B34*$M$2)&gt;(C34*6),(B34-(B34*$M$2)),(B34-(C34*6)))</f>
         <v>513.24</v>
       </c>
       <c r="I34" s="7">
-        <f>(VLOOKUP(D34,updated_mrgs!B:G,3,FALSE))</f>
-        <v>363.75</v>
+        <v>0</v>
       </c>
       <c r="J34" s="7">
-        <f t="shared" si="4"/>
-        <v>-315.66000000000008</v>
-      </c>
-      <c r="K34" s="7">
-        <f>VLOOKUP(D34,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>303.125</v>
-      </c>
-      <c r="L34" s="7">
-        <f t="shared" ref="L34:L53" si="6">IF((B34*$Q$2)&gt;(K34*6),(B34-(B34*$Q$2)),(B34-(K34*6)))</f>
-        <v>48.089999999999918</v>
-      </c>
-      <c r="M34" s="7">
-        <v>0</v>
-      </c>
-      <c r="N34" s="7">
-        <f t="shared" ref="N34:N53" si="7">B34-(M34*6)</f>
+        <f>B34-(I34*6)</f>
         <v>1866.84</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B35" s="9">
         <v>2067.0700000000002</v>
@@ -2911,7 +2376,7 @@
         <v>225.6</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E35" s="9">
         <v>2990.42</v>
@@ -2923,36 +2388,20 @@
         <v>75</v>
       </c>
       <c r="H35" s="7">
-        <f t="shared" si="5"/>
+        <f>IF((B35*$M$2)&gt;(C35*6),(B35-(B35*$M$2)),(B35-(C35*6)))</f>
         <v>713.47000000000025</v>
       </c>
       <c r="I35" s="7">
-        <f>(VLOOKUP(D35,updated_mrgs!B:G,3,FALSE))</f>
-        <v>363.75</v>
+        <v>0</v>
       </c>
       <c r="J35" s="7">
-        <f t="shared" si="4"/>
-        <v>-115.42999999999984</v>
-      </c>
-      <c r="K35" s="7">
-        <f>VLOOKUP(D35,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>303.125</v>
-      </c>
-      <c r="L35" s="7">
-        <f t="shared" si="6"/>
-        <v>248.32000000000016</v>
-      </c>
-      <c r="M35" s="7">
-        <v>0</v>
-      </c>
-      <c r="N35" s="7">
-        <f t="shared" si="7"/>
+        <f>B35-(I35*6)</f>
         <v>2067.0700000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B36" s="9">
         <v>1841.5</v>
@@ -2961,7 +2410,7 @@
         <v>225.6</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E36" s="9">
         <v>2940.33</v>
@@ -2973,36 +2422,20 @@
         <v>145</v>
       </c>
       <c r="H36" s="7">
-        <f t="shared" si="5"/>
+        <f>IF((B36*$M$2)&gt;(C36*6),(B36-(B36*$M$2)),(B36-(C36*6)))</f>
         <v>487.90000000000009</v>
       </c>
       <c r="I36" s="7">
-        <f>(VLOOKUP(D36,updated_mrgs!B:G,3,FALSE))</f>
-        <v>363.75</v>
+        <v>0</v>
       </c>
       <c r="J36" s="7">
-        <f t="shared" si="4"/>
-        <v>-341</v>
-      </c>
-      <c r="K36" s="7">
-        <f>VLOOKUP(D36,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>303.125</v>
-      </c>
-      <c r="L36" s="7">
-        <f t="shared" si="6"/>
-        <v>22.75</v>
-      </c>
-      <c r="M36" s="7">
-        <v>0</v>
-      </c>
-      <c r="N36" s="7">
-        <f t="shared" si="7"/>
+        <f>B36-(I36*6)</f>
         <v>1841.5</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B37" s="9">
         <v>1906.76</v>
@@ -3011,7 +2444,7 @@
         <v>225.6</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E37" s="9">
         <v>2862.72</v>
@@ -3023,36 +2456,20 @@
         <v>94</v>
       </c>
       <c r="H37" s="7">
-        <f t="shared" si="5"/>
+        <f>IF((B37*$M$2)&gt;(C37*6),(B37-(B37*$M$2)),(B37-(C37*6)))</f>
         <v>553.16000000000008</v>
       </c>
       <c r="I37" s="7">
-        <f>(VLOOKUP(D37,updated_mrgs!B:G,3,FALSE))</f>
-        <v>363.75</v>
+        <v>0</v>
       </c>
       <c r="J37" s="7">
-        <f t="shared" si="4"/>
-        <v>-275.74</v>
-      </c>
-      <c r="K37" s="7">
-        <f>VLOOKUP(D37,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>303.125</v>
-      </c>
-      <c r="L37" s="7">
-        <f t="shared" si="6"/>
-        <v>88.009999999999991</v>
-      </c>
-      <c r="M37" s="7">
-        <v>0</v>
-      </c>
-      <c r="N37" s="7">
-        <f t="shared" si="7"/>
+        <f>B37-(I37*6)</f>
         <v>1906.76</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B38" s="9">
         <v>2016.75</v>
@@ -3061,7 +2478,7 @@
         <v>211.2</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E38" s="9">
         <v>2839.26</v>
@@ -3073,36 +2490,20 @@
         <v>150</v>
       </c>
       <c r="H38" s="7">
-        <f t="shared" si="5"/>
+        <f>IF((B38*$M$2)&gt;(C38*6),(B38-(B38*$M$2)),(B38-(C38*6)))</f>
         <v>749.55000000000018</v>
       </c>
       <c r="I38" s="7">
-        <f>(VLOOKUP(D38,updated_mrgs!B:G,3,FALSE))</f>
-        <v>476.75</v>
+        <v>0</v>
       </c>
       <c r="J38" s="7">
-        <f t="shared" si="4"/>
-        <v>-843.75</v>
-      </c>
-      <c r="K38" s="7">
-        <f>VLOOKUP(D38,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>397.29166666666669</v>
-      </c>
-      <c r="L38" s="7">
-        <f t="shared" si="6"/>
-        <v>-367</v>
-      </c>
-      <c r="M38" s="7">
-        <v>0</v>
-      </c>
-      <c r="N38" s="7">
-        <f t="shared" si="7"/>
+        <f>B38-(I38*6)</f>
         <v>2016.75</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B39" s="9">
         <v>1783.46</v>
@@ -3111,7 +2512,7 @@
         <v>225.6</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E39" s="9">
         <v>2778.28</v>
@@ -3123,36 +2524,20 @@
         <v>151</v>
       </c>
       <c r="H39" s="7">
-        <f t="shared" si="5"/>
+        <f>IF((B39*$M$2)&gt;(C39*6),(B39-(B39*$M$2)),(B39-(C39*6)))</f>
         <v>429.86000000000013</v>
       </c>
       <c r="I39" s="7">
-        <f>(VLOOKUP(D39,updated_mrgs!B:G,3,FALSE))</f>
-        <v>363.75</v>
+        <v>0</v>
       </c>
       <c r="J39" s="7">
-        <f t="shared" si="4"/>
-        <v>-399.03999999999996</v>
-      </c>
-      <c r="K39" s="7">
-        <f>VLOOKUP(D39,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>303.125</v>
-      </c>
-      <c r="L39" s="7">
-        <f t="shared" si="6"/>
-        <v>-35.289999999999964</v>
-      </c>
-      <c r="M39" s="7">
-        <v>0</v>
-      </c>
-      <c r="N39" s="7">
-        <f t="shared" si="7"/>
+        <f>B39-(I39*6)</f>
         <v>1783.46</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B40" s="9">
         <v>1689.83</v>
@@ -3161,7 +2546,7 @@
         <v>192</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E40" s="9">
         <v>2757.19</v>
@@ -3173,36 +2558,20 @@
         <v>84</v>
       </c>
       <c r="H40" s="7">
-        <f t="shared" si="5"/>
+        <f>IF((B40*$M$2)&gt;(C40*6),(B40-(B40*$M$2)),(B40-(C40*6)))</f>
         <v>537.82999999999993</v>
       </c>
       <c r="I40" s="7">
-        <f>(VLOOKUP(D40,updated_mrgs!B:G,3,FALSE))</f>
-        <v>363.75</v>
+        <v>0</v>
       </c>
       <c r="J40" s="7">
-        <f t="shared" si="4"/>
-        <v>-492.67000000000007</v>
-      </c>
-      <c r="K40" s="7">
-        <f>VLOOKUP(D40,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>303.125</v>
-      </c>
-      <c r="L40" s="7">
-        <f t="shared" si="6"/>
-        <v>-128.92000000000007</v>
-      </c>
-      <c r="M40" s="7">
-        <v>0</v>
-      </c>
-      <c r="N40" s="7">
-        <f t="shared" si="7"/>
+        <f>B40-(I40*6)</f>
         <v>1689.83</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B41" s="9">
         <v>1795.17</v>
@@ -3211,7 +2580,7 @@
         <v>225.6</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E41" s="9">
         <v>2702.84</v>
@@ -3223,36 +2592,20 @@
         <v>160</v>
       </c>
       <c r="H41" s="7">
-        <f t="shared" si="5"/>
+        <f>IF((B41*$M$2)&gt;(C41*6),(B41-(B41*$M$2)),(B41-(C41*6)))</f>
         <v>441.57000000000016</v>
       </c>
       <c r="I41" s="7">
-        <f>(VLOOKUP(D41,updated_mrgs!B:G,3,FALSE))</f>
-        <v>363.75</v>
+        <v>0</v>
       </c>
       <c r="J41" s="7">
-        <f t="shared" si="4"/>
-        <v>-387.32999999999993</v>
-      </c>
-      <c r="K41" s="7">
-        <f>VLOOKUP(D41,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>303.125</v>
-      </c>
-      <c r="L41" s="7">
-        <f t="shared" si="6"/>
-        <v>-23.579999999999927</v>
-      </c>
-      <c r="M41" s="7">
-        <v>0</v>
-      </c>
-      <c r="N41" s="7">
-        <f t="shared" si="7"/>
+        <f>B41-(I41*6)</f>
         <v>1795.17</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B42" s="9">
         <v>1498.91</v>
@@ -3261,7 +2614,7 @@
         <v>225.6</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E42" s="9">
         <v>2452.4899999999998</v>
@@ -3273,36 +2626,20 @@
         <v>93</v>
       </c>
       <c r="H42" s="7">
-        <f t="shared" si="5"/>
+        <f>IF((B42*$M$2)&gt;(C42*6),(B42-(B42*$M$2)),(B42-(C42*6)))</f>
         <v>145.31000000000017</v>
       </c>
       <c r="I42" s="7">
-        <f>(VLOOKUP(D42,updated_mrgs!B:G,3,FALSE))</f>
-        <v>363.75</v>
+        <v>0</v>
       </c>
       <c r="J42" s="7">
-        <f t="shared" si="4"/>
-        <v>-683.58999999999992</v>
-      </c>
-      <c r="K42" s="7">
-        <f>VLOOKUP(D42,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>303.125</v>
-      </c>
-      <c r="L42" s="7">
-        <f t="shared" si="6"/>
-        <v>-319.83999999999992</v>
-      </c>
-      <c r="M42" s="7">
-        <v>0</v>
-      </c>
-      <c r="N42" s="7">
-        <f t="shared" si="7"/>
+        <f>B42-(I42*6)</f>
         <v>1498.91</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B43" s="9">
         <v>1508.04</v>
@@ -3311,7 +2648,7 @@
         <v>211.2</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E43" s="9">
         <v>2368.2600000000002</v>
@@ -3323,36 +2660,20 @@
         <v>122</v>
       </c>
       <c r="H43" s="7">
-        <f t="shared" si="5"/>
+        <f>IF((B43*$M$2)&gt;(C43*6),(B43-(B43*$M$2)),(B43-(C43*6)))</f>
         <v>240.84000000000015</v>
       </c>
       <c r="I43" s="7">
-        <f>(VLOOKUP(D43,updated_mrgs!B:G,3,FALSE))</f>
-        <v>476.75</v>
+        <v>0</v>
       </c>
       <c r="J43" s="7">
-        <f t="shared" si="4"/>
-        <v>-1352.46</v>
-      </c>
-      <c r="K43" s="7">
-        <f>VLOOKUP(D43,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>397.29166666666669</v>
-      </c>
-      <c r="L43" s="7">
-        <f t="shared" si="6"/>
-        <v>-875.71</v>
-      </c>
-      <c r="M43" s="7">
-        <v>0</v>
-      </c>
-      <c r="N43" s="7">
-        <f t="shared" si="7"/>
+        <f>B43-(I43*6)</f>
         <v>1508.04</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B44" s="9">
         <v>1611.34</v>
@@ -3361,7 +2682,7 @@
         <v>211.2</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E44" s="9">
         <v>2362.0300000000002</v>
@@ -3373,36 +2694,20 @@
         <v>144</v>
       </c>
       <c r="H44" s="7">
-        <f t="shared" si="5"/>
+        <f>IF((B44*$M$2)&gt;(C44*6),(B44-(B44*$M$2)),(B44-(C44*6)))</f>
         <v>344.1400000000001</v>
       </c>
       <c r="I44" s="7">
-        <f>(VLOOKUP(D44,updated_mrgs!B:G,3,FALSE))</f>
-        <v>476.75</v>
+        <v>0</v>
       </c>
       <c r="J44" s="7">
-        <f t="shared" si="4"/>
-        <v>-1249.1600000000001</v>
-      </c>
-      <c r="K44" s="7">
-        <f>VLOOKUP(D44,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>397.29166666666669</v>
-      </c>
-      <c r="L44" s="7">
-        <f t="shared" si="6"/>
-        <v>-772.41000000000008</v>
-      </c>
-      <c r="M44" s="7">
-        <v>0</v>
-      </c>
-      <c r="N44" s="7">
-        <f t="shared" si="7"/>
+        <f>B44-(I44*6)</f>
         <v>1611.34</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B45" s="9">
         <v>1675.28</v>
@@ -3411,7 +2716,7 @@
         <v>211.2</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E45" s="9">
         <v>2353.33</v>
@@ -3423,36 +2728,20 @@
         <v>126</v>
       </c>
       <c r="H45" s="7">
-        <f t="shared" si="5"/>
+        <f>IF((B45*$M$2)&gt;(C45*6),(B45-(B45*$M$2)),(B45-(C45*6)))</f>
         <v>408.08000000000015</v>
       </c>
       <c r="I45" s="7">
-        <f>(VLOOKUP(D45,updated_mrgs!B:G,3,FALSE))</f>
-        <v>476.75</v>
+        <v>0</v>
       </c>
       <c r="J45" s="7">
-        <f t="shared" si="4"/>
-        <v>-1185.22</v>
-      </c>
-      <c r="K45" s="7">
-        <f>VLOOKUP(D45,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>397.29166666666669</v>
-      </c>
-      <c r="L45" s="7">
-        <f t="shared" si="6"/>
-        <v>-708.47</v>
-      </c>
-      <c r="M45" s="7">
-        <v>0</v>
-      </c>
-      <c r="N45" s="7">
-        <f t="shared" si="7"/>
+        <f>B45-(I45*6)</f>
         <v>1675.28</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B46" s="9">
         <v>1645.05</v>
@@ -3461,7 +2750,7 @@
         <v>211.2</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E46" s="9">
         <v>2334.91</v>
@@ -3473,36 +2762,20 @@
         <v>90</v>
       </c>
       <c r="H46" s="7">
-        <f t="shared" si="5"/>
+        <f>IF((B46*$M$2)&gt;(C46*6),(B46-(B46*$M$2)),(B46-(C46*6)))</f>
         <v>377.85000000000014</v>
       </c>
       <c r="I46" s="7">
-        <f>(VLOOKUP(D46,updated_mrgs!B:G,3,FALSE))</f>
-        <v>476.75</v>
+        <v>0</v>
       </c>
       <c r="J46" s="7">
-        <f t="shared" si="4"/>
-        <v>-1215.45</v>
-      </c>
-      <c r="K46" s="7">
-        <f>VLOOKUP(D46,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>397.29166666666669</v>
-      </c>
-      <c r="L46" s="7">
-        <f t="shared" si="6"/>
-        <v>-738.7</v>
-      </c>
-      <c r="M46" s="7">
-        <v>0</v>
-      </c>
-      <c r="N46" s="7">
-        <f t="shared" si="7"/>
+        <f>B46-(I46*6)</f>
         <v>1645.05</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B47" s="9">
         <v>1617.78</v>
@@ -3511,7 +2784,7 @@
         <v>225.6</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E47" s="9">
         <v>2118.9499999999998</v>
@@ -3523,36 +2796,20 @@
         <v>80</v>
       </c>
       <c r="H47" s="7">
-        <f t="shared" si="5"/>
+        <f>IF((B47*$M$2)&gt;(C47*6),(B47-(B47*$M$2)),(B47-(C47*6)))</f>
         <v>264.18000000000006</v>
       </c>
       <c r="I47" s="7">
-        <f>(VLOOKUP(D47,updated_mrgs!B:G,3,FALSE))</f>
-        <v>363.75</v>
+        <v>0</v>
       </c>
       <c r="J47" s="7">
-        <f t="shared" si="4"/>
-        <v>-564.72</v>
-      </c>
-      <c r="K47" s="7">
-        <f>VLOOKUP(D47,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>303.125</v>
-      </c>
-      <c r="L47" s="7">
-        <f t="shared" si="6"/>
-        <v>-200.97000000000003</v>
-      </c>
-      <c r="M47" s="7">
-        <v>0</v>
-      </c>
-      <c r="N47" s="7">
-        <f t="shared" si="7"/>
+        <f>B47-(I47*6)</f>
         <v>1617.78</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B48" s="9">
         <v>1295.1500000000001</v>
@@ -3561,7 +2818,7 @@
         <v>225.6</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E48" s="9">
         <v>1974.96</v>
@@ -3573,36 +2830,20 @@
         <v>132</v>
       </c>
       <c r="H48" s="7">
-        <f t="shared" si="5"/>
+        <f>IF((B48*$M$2)&gt;(C48*6),(B48-(B48*$M$2)),(B48-(C48*6)))</f>
         <v>-58.449999999999818</v>
       </c>
       <c r="I48" s="7">
-        <f>(VLOOKUP(D48,updated_mrgs!B:G,3,FALSE))</f>
-        <v>363.75</v>
+        <v>0</v>
       </c>
       <c r="J48" s="7">
-        <f t="shared" si="4"/>
-        <v>-887.34999999999991</v>
-      </c>
-      <c r="K48" s="7">
-        <f>VLOOKUP(D48,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>303.125</v>
-      </c>
-      <c r="L48" s="7">
-        <f t="shared" si="6"/>
-        <v>-523.59999999999991</v>
-      </c>
-      <c r="M48" s="7">
-        <v>0</v>
-      </c>
-      <c r="N48" s="7">
-        <f t="shared" si="7"/>
+        <f>B48-(I48*6)</f>
         <v>1295.1500000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B49" s="9">
         <v>1035.3</v>
@@ -3611,7 +2852,7 @@
         <v>192</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E49" s="9">
         <v>1751.75</v>
@@ -3623,36 +2864,20 @@
         <v>10</v>
       </c>
       <c r="H49" s="7">
-        <f t="shared" si="5"/>
+        <f>IF((B49*$M$2)&gt;(C49*6),(B49-(B49*$M$2)),(B49-(C49*6)))</f>
         <v>-116.70000000000005</v>
       </c>
       <c r="I49" s="7">
-        <f>(VLOOKUP(D49,updated_mrgs!B:G,3,FALSE))</f>
-        <v>363.75</v>
+        <v>0</v>
       </c>
       <c r="J49" s="7">
-        <f t="shared" si="4"/>
-        <v>-1147.2</v>
-      </c>
-      <c r="K49" s="7">
-        <f>VLOOKUP(D49,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>303.125</v>
-      </c>
-      <c r="L49" s="7">
-        <f t="shared" si="6"/>
-        <v>-783.45</v>
-      </c>
-      <c r="M49" s="7">
-        <v>0</v>
-      </c>
-      <c r="N49" s="7">
-        <f t="shared" si="7"/>
+        <f>B49-(I49*6)</f>
         <v>1035.3</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B50" s="9">
         <v>1086.42</v>
@@ -3661,7 +2886,7 @@
         <v>225.6</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E50" s="9">
         <v>1635.03</v>
@@ -3673,36 +2898,20 @@
         <v>114</v>
       </c>
       <c r="H50" s="7">
-        <f t="shared" si="5"/>
+        <f>IF((B50*$M$2)&gt;(C50*6),(B50-(B50*$M$2)),(B50-(C50*6)))</f>
         <v>-267.17999999999984</v>
       </c>
       <c r="I50" s="7">
-        <f>(VLOOKUP(D50,updated_mrgs!B:G,3,FALSE))</f>
-        <v>363.75</v>
+        <v>0</v>
       </c>
       <c r="J50" s="7">
-        <f t="shared" si="4"/>
-        <v>-1096.08</v>
-      </c>
-      <c r="K50" s="7">
-        <f>VLOOKUP(D50,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>303.125</v>
-      </c>
-      <c r="L50" s="7">
-        <f t="shared" si="6"/>
-        <v>-732.32999999999993</v>
-      </c>
-      <c r="M50" s="7">
-        <v>0</v>
-      </c>
-      <c r="N50" s="7">
-        <f t="shared" si="7"/>
+        <f>B50-(I50*6)</f>
         <v>1086.42</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B51" s="9">
         <v>911.18</v>
@@ -3711,7 +2920,7 @@
         <v>225.6</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E51" s="9">
         <v>1432.59</v>
@@ -3723,36 +2932,20 @@
         <v>40</v>
       </c>
       <c r="H51" s="7">
-        <f t="shared" si="5"/>
+        <f>IF((B51*$M$2)&gt;(C51*6),(B51-(B51*$M$2)),(B51-(C51*6)))</f>
         <v>-442.41999999999996</v>
       </c>
       <c r="I51" s="7">
-        <f>(VLOOKUP(D51,updated_mrgs!B:G,3,FALSE))</f>
-        <v>363.75</v>
+        <v>0</v>
       </c>
       <c r="J51" s="7">
-        <f t="shared" si="4"/>
-        <v>-1271.3200000000002</v>
-      </c>
-      <c r="K51" s="7">
-        <f>VLOOKUP(D51,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>303.125</v>
-      </c>
-      <c r="L51" s="7">
-        <f t="shared" si="6"/>
-        <v>-907.57</v>
-      </c>
-      <c r="M51" s="7">
-        <v>0</v>
-      </c>
-      <c r="N51" s="7">
-        <f t="shared" si="7"/>
+        <f>B51-(I51*6)</f>
         <v>911.18</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B52" s="9">
         <v>1023.8</v>
@@ -3761,7 +2954,7 @@
         <v>225.6</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E52" s="9">
         <v>1360.75</v>
@@ -3773,36 +2966,20 @@
         <v>50</v>
       </c>
       <c r="H52" s="7">
-        <f t="shared" si="5"/>
+        <f>IF((B52*$M$2)&gt;(C52*6),(B52-(B52*$M$2)),(B52-(C52*6)))</f>
         <v>-329.79999999999995</v>
       </c>
       <c r="I52" s="7">
-        <f>(VLOOKUP(D52,updated_mrgs!B:G,3,FALSE))</f>
-        <v>363.75</v>
+        <v>0</v>
       </c>
       <c r="J52" s="7">
-        <f t="shared" si="4"/>
-        <v>-1158.7</v>
-      </c>
-      <c r="K52" s="7">
-        <f>VLOOKUP(D52,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>303.125</v>
-      </c>
-      <c r="L52" s="7">
-        <f t="shared" si="6"/>
-        <v>-794.95</v>
-      </c>
-      <c r="M52" s="7">
-        <v>0</v>
-      </c>
-      <c r="N52" s="7">
-        <f t="shared" si="7"/>
+        <f>B52-(I52*6)</f>
         <v>1023.8</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B53" s="9">
         <v>766.81</v>
@@ -3811,7 +2988,7 @@
         <v>211.2</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E53" s="9">
         <v>1112.21</v>
@@ -3823,39 +3000,23 @@
         <v>30</v>
       </c>
       <c r="H53" s="7">
-        <f t="shared" si="5"/>
+        <f>IF((B53*$M$2)&gt;(C53*6),(B53-(B53*$M$2)),(B53-(C53*6)))</f>
         <v>-500.38999999999987</v>
       </c>
       <c r="I53" s="7">
-        <f>(VLOOKUP(D53,updated_mrgs!B:G,3,FALSE))</f>
-        <v>476.75</v>
+        <v>0</v>
       </c>
       <c r="J53" s="7">
-        <f t="shared" si="4"/>
-        <v>-2093.69</v>
-      </c>
-      <c r="K53" s="7">
-        <f>VLOOKUP(D53,updated_mrgs!B:AB,5,FALSE)</f>
-        <v>397.29166666666669</v>
-      </c>
-      <c r="L53" s="7">
-        <f t="shared" si="6"/>
-        <v>-1616.94</v>
-      </c>
-      <c r="M53" s="7">
-        <v>0</v>
-      </c>
-      <c r="N53" s="7">
-        <f t="shared" si="7"/>
+        <f>B53-(I53*6)</f>
         <v>766.81</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1:H981 J1:J981 L1:L981 N1:N981">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="H1:H981 J1:J981">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3870,7 +3031,7 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -3889,45 +3050,45 @@
   <sheetData>
     <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>84</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" s="12">
         <v>264</v>
@@ -3962,10 +3123,10 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="12">
         <v>264</v>
@@ -4000,10 +3161,10 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="12">
         <v>264</v>
@@ -4038,10 +3199,10 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="12">
         <v>264</v>
@@ -4076,10 +3237,10 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C6" s="12">
         <v>264</v>
@@ -4114,10 +3275,10 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="12">
         <v>282</v>
@@ -4152,10 +3313,10 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" s="12">
         <v>388</v>
@@ -4190,10 +3351,10 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="12">
         <v>388</v>
@@ -4228,10 +3389,10 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="12">
         <v>240</v>
@@ -4266,10 +3427,10 @@
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="12">
         <v>282</v>
